--- a/系统组/新需求PDA条码变更.xlsx
+++ b/系统组/新需求PDA条码变更.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="123">
   <si>
     <t>序号</t>
   </si>
@@ -230,6 +230,261 @@
   </si>
   <si>
     <t>l_note</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BQQ</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>所属网点代码</t>
+  </si>
+  <si>
+    <t>所属网点名称</t>
+  </si>
+  <si>
+    <t>使用部门</t>
+  </si>
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>片区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>条码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>站点名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMO账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IMO密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登记it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BQQ账号登记  xt_bqq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_net_number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_net_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_section</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_register_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_service_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网点IMO账号登记    xt_net_imo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_pass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_it</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_register_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>i_service_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子账号对应表   child_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_child_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_service_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应用户表id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_man</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应用户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u_num</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_note</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -238,11 +493,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="180" formatCode="000000"/>
-    <numFmt numFmtId="181" formatCode="0_);[Red]\(0\)"/>
-    <numFmt numFmtId="182" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="000000"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,8 +532,62 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -306,6 +615,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -412,110 +733,151 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="5" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="3" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="3" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -801,288 +1163,613 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M336"/>
+  <dimension ref="A2:Q334"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.125" customWidth="1"/>
-    <col min="7" max="7" width="12.5" customWidth="1"/>
-    <col min="8" max="8" width="13.125" customWidth="1"/>
-    <col min="9" max="9" width="11.25" customWidth="1"/>
-    <col min="10" max="10" width="12.25" customWidth="1"/>
-    <col min="12" max="12" width="13" customWidth="1"/>
+    <col min="1" max="2" width="9" style="36"/>
+    <col min="3" max="3" width="10" style="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="36"/>
+    <col min="5" max="5" width="15.25" style="36" customWidth="1"/>
+    <col min="6" max="6" width="13" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="36" customWidth="1"/>
+    <col min="8" max="8" width="13.125" style="36" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="36" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.75" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.75" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13" style="36" customWidth="1"/>
+    <col min="13" max="14" width="12.75" style="36" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="9" style="36"/>
+    <col min="17" max="17" width="11" style="36" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="36"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-    </row>
-    <row r="3" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+    </row>
+    <row r="3" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="M3" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="N3" s="46" t="s">
+        <v>110</v>
+      </c>
+      <c r="O3" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="P3" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q3" s="46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="13" t="s">
+      <c r="N4" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q4" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-    </row>
-    <row r="9" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="15" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+    </row>
+    <row r="9" spans="1:17" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="18" t="s">
+      <c r="G9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="C10" s="19" t="s">
+      <c r="K9" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="L9" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="N9" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="O9" s="47" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="34" t="s">
+      <c r="D10" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="F10" s="32" t="s">
+      <c r="F10" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H10" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="25" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B15" s="14" t="s">
+      <c r="K10" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="M10" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O10" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-    </row>
-    <row r="16" spans="1:13" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="22" t="s">
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+    </row>
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="I16" s="29" t="s">
+      <c r="I16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="29" t="s">
+      <c r="J16" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="24" t="s">
+      <c r="K16" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B17" s="22" t="s">
+    <row r="17" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="28" t="s">
+      <c r="E17" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="28" t="s">
+      <c r="F17" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="25" t="s">
+      <c r="G17" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="H17" s="28" t="s">
+      <c r="H17" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="I17" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="J17" s="31" t="s">
+      <c r="J17" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="K17" s="22" t="s">
+      <c r="K17" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="2:11" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="22"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="22"/>
-    </row>
-    <row r="335" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M335" s="12"/>
-    </row>
-    <row r="336" spans="13:13" x14ac:dyDescent="0.2">
-      <c r="M336" s="12"/>
+    <row r="18" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="14"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="14"/>
+    </row>
+    <row r="22" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
+      <c r="L22" s="45"/>
+      <c r="M22" s="45"/>
+      <c r="N22" s="45"/>
+    </row>
+    <row r="23" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="31" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="L23" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="M23" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="N23" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="J24" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="K24" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="L24" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="M24" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="N24" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="32"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="32"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+    </row>
+    <row r="30" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+      <c r="J30" s="45"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="45"/>
+      <c r="M30" s="45"/>
+      <c r="N30" s="45"/>
+    </row>
+    <row r="31" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="I31" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="J31" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="K31" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="L31" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="M31" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="N31" s="31" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="I32" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="J32" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="K32" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="L32" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="M32" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="N32" s="32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="32"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+    </row>
+    <row r="37" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F37" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+    </row>
+    <row r="38" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F38" s="39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="H38" s="30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F39" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="G39" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="H39" s="34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H40" s="33"/>
+    </row>
+    <row r="333" spans="13:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M333" s="41"/>
+    </row>
+    <row r="334" spans="13:13" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M334" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="M335:M336"/>
+  <mergeCells count="7">
+    <mergeCell ref="M333:M334"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="C8:J8"/>
     <mergeCell ref="B15:K15"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="B30:N30"/>
+    <mergeCell ref="B22:N22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
